--- a/Teja_AI/Books_DL/Types_Of_Inputs.xlsx
+++ b/Teja_AI/Books_DL/Types_Of_Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TejaVardhan\Radhamma\Teja_AI\Books_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B95E48-CE17-486F-9EC7-99D1635E86FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37FD5F7-947B-4D53-B105-08E11C55D32E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{5B046D55-C3FC-423F-A6FF-80AC4B27F858}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Concept</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Target LaNGUAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutskever </t>
+  </si>
+  <si>
+    <t>Structured output</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>vector form</t>
+  </si>
+  <si>
+    <t>Collobert</t>
+  </si>
+  <si>
+    <t>Anamaly detection</t>
   </si>
 </sst>
 </file>
@@ -455,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0925CC2A-4F3E-4368-96A5-72A540D9FAC1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,6 +553,28 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
